--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3CF446-F27D-024D-8185-058F8BCDB2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01700EA-3E84-B54C-8447-E4673017471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -1554,8 +1554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="B2:K41" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B2:K41" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:J40" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN" dataDxfId="10"/>
@@ -1776,10 +1776,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC3673-463E-47A3-BDB8-5CFB31BE4FC9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:K41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B41"/>
+      <selection sqref="A1:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1798,1078 +1798,1078 @@
     <col min="12" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>195</v>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>190</v>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>209</v>
+      <c r="J15" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J37" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="2:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="8" t="s">
+      <c r="H39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>157</v>
-      </c>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="8" t="s">
+      <c r="H40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="8" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" xr:uid="{2C5E3A62-46E1-4943-898D-9898C453B348}"/>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{2C5E3A62-46E1-4943-898D-9898C453B348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01700EA-3E84-B54C-8447-E4673017471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB55078-FBBB-0D4F-88AC-68934EA87BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -568,15 +568,6 @@
     <t>Ticker indice</t>
   </si>
   <si>
-    <t>^FTSE</t>
-  </si>
-  <si>
-    <t>^GSPC)</t>
-  </si>
-  <si>
-    <t>^STOXX50E</t>
-  </si>
-  <si>
     <t>^SDAXI</t>
   </si>
   <si>
@@ -689,6 +680,15 @@
   </si>
   <si>
     <t>stoxx</t>
+  </si>
+  <si>
+    <t>^FTSE.MI</t>
+  </si>
+  <si>
+    <t>^GSPC.MI</t>
+  </si>
+  <si>
+    <t>^STOXX50E.MI</t>
   </si>
 </sst>
 </file>
@@ -1778,20 +1778,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J40"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="73" customWidth="1"/>
+    <col min="7" max="7" width="69.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.83203125" bestFit="1" customWidth="1"/>
@@ -1818,13 +1818,13 @@
         <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>173</v>
@@ -1847,14 +1847,14 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -1876,13 +1876,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1904,13 +1904,13 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -1932,13 +1932,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -1960,13 +1960,13 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -1988,13 +1988,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -2016,13 +2016,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -2043,14 +2043,14 @@
         <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -2072,13 +2072,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -2100,13 +2100,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -2127,20 +2127,20 @@
         <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -2184,13 +2184,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>174</v>
@@ -2242,13 +2242,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -2270,13 +2270,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -2297,14 +2297,14 @@
         <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -2326,13 +2326,13 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -2354,13 +2354,13 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -2382,13 +2382,13 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -2410,13 +2410,13 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -2466,13 +2466,13 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -2494,13 +2494,13 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -2522,13 +2522,13 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J26" s="8"/>
     </row>
@@ -2551,10 +2551,10 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J27" s="8"/>
     </row>
@@ -2576,13 +2576,13 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J28" s="8"/>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="8"/>
@@ -2627,14 +2627,14 @@
         <v>117</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J30" s="8"/>
     </row>
@@ -2652,17 +2652,17 @@
         <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J31" s="8"/>
     </row>
@@ -2677,7 +2677,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="8" t="s">
@@ -2702,13 +2702,13 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J33" s="8"/>
     </row>
@@ -2730,13 +2730,13 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="8"/>
@@ -2774,13 +2774,13 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J36" s="9"/>
     </row>
@@ -2802,13 +2802,13 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J37" s="9"/>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="8" t="s">
@@ -2841,7 +2841,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="8" t="s">
@@ -2859,7 +2859,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="8" t="s">

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB55078-FBBB-0D4F-88AC-68934EA87BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C98F8-F379-8D46-9392-ACDA7C0D9AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -568,6 +568,12 @@
     <t>Ticker indice</t>
   </si>
   <si>
+    <t>^FTSE</t>
+  </si>
+  <si>
+    <t>^STOXX50E</t>
+  </si>
+  <si>
     <t>^SDAXI</t>
   </si>
   <si>
@@ -682,13 +688,7 @@
     <t>stoxx</t>
   </si>
   <si>
-    <t>^FTSE.MI</t>
-  </si>
-  <si>
-    <t>^GSPC.MI</t>
-  </si>
-  <si>
-    <t>^STOXX50E.MI</t>
+    <t>^GSPC</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1779,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1818,13 +1818,13 @@
         <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>173</v>
@@ -1847,14 +1847,14 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -1876,13 +1876,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1904,13 +1904,13 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -1932,13 +1932,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -1960,13 +1960,13 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -1988,13 +1988,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -2016,13 +2016,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -2043,14 +2043,14 @@
         <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -2072,13 +2072,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -2100,13 +2100,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -2127,20 +2127,20 @@
         <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -2184,13 +2184,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>174</v>
@@ -2242,13 +2242,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -2270,13 +2270,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -2297,14 +2297,14 @@
         <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -2326,13 +2326,13 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -2354,13 +2354,13 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -2382,13 +2382,13 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J21" s="8"/>
     </row>
@@ -2410,13 +2410,13 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -2438,13 +2438,13 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -2466,13 +2466,13 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J24" s="8"/>
     </row>
@@ -2494,13 +2494,13 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -2522,13 +2522,13 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J26" s="8"/>
     </row>
@@ -2551,10 +2551,10 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J27" s="8"/>
     </row>
@@ -2576,13 +2576,13 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J28" s="8"/>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="8"/>
@@ -2627,14 +2627,14 @@
         <v>117</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J30" s="8"/>
     </row>
@@ -2652,17 +2652,17 @@
         <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J31" s="8"/>
     </row>
@@ -2677,7 +2677,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="8" t="s">
@@ -2702,13 +2702,13 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J33" s="8"/>
     </row>
@@ -2730,13 +2730,13 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="8"/>
@@ -2774,13 +2774,13 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J36" s="9"/>
     </row>
@@ -2802,13 +2802,13 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J37" s="9"/>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="8" t="s">
@@ -2841,7 +2841,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="8" t="s">
@@ -2859,7 +2859,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="8" t="s">

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C98F8-F379-8D46-9392-ACDA7C0D9AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AECCBE-2DEB-5341-890A-4ABF892C065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -1779,7 +1779,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AECCBE-2DEB-5341-890A-4ABF892C065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF64C355-B6E9-E444-AF25-AF9491A64F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="217">
   <si>
     <t>Korea</t>
   </si>
@@ -49,9 +49,6 @@
     <t>IE00B5377D42</t>
   </si>
   <si>
-    <t xml:space="preserve">Franklin FTSE Korea UCITS ETF </t>
-  </si>
-  <si>
     <t>iShares MSCI Australia UCITS ETF</t>
   </si>
   <si>
@@ -259,15 +256,6 @@
     <t>EM Small Cap</t>
   </si>
   <si>
-    <t>LU2788421340</t>
-  </si>
-  <si>
-    <t>Xtrackers CSI500 Swap UCITS ETF 1C 1C</t>
-  </si>
-  <si>
-    <t>China Small Cap</t>
-  </si>
-  <si>
     <t>iShares MSCI Japan Small Cap UCITS ETF (Dist)</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>Germany Small Cap</t>
   </si>
   <si>
-    <t>FTSE Korea 30/18 Capped</t>
-  </si>
-  <si>
     <t>MSCI Australia</t>
   </si>
   <si>
@@ -391,12 +376,6 @@
     <t>SDAX</t>
   </si>
   <si>
-    <t>CSI500</t>
-  </si>
-  <si>
-    <t>FLXK</t>
-  </si>
-  <si>
     <t>SAUS</t>
   </si>
   <si>
@@ -469,9 +448,6 @@
     <t>SPYX</t>
   </si>
   <si>
-    <t>XCSI</t>
-  </si>
-  <si>
     <t>ISJP</t>
   </si>
   <si>
@@ -580,9 +556,6 @@
     <t>Hang Seng TECH</t>
   </si>
   <si>
-    <t>HSTECH.HK</t>
-  </si>
-  <si>
     <t>Github export location</t>
   </si>
   <si>
@@ -673,22 +646,46 @@
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
-    <t>WIKORFC.FGI</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>yfinance</t>
   </si>
   <si>
-    <t>Investing</t>
+    <t>MSCI</t>
   </si>
   <si>
     <t>stoxx</t>
   </si>
   <si>
     <t>^GSPC</t>
+  </si>
+  <si>
+    <t>MSCI Malesia</t>
+  </si>
+  <si>
+    <t>MSCI Indonesia</t>
+  </si>
+  <si>
+    <t>MSCI Messico</t>
+  </si>
+  <si>
+    <t>MSCI Cile</t>
+  </si>
+  <si>
+    <t>Indice particolare presente solo dal 2020. Non ha senso considerarlo</t>
+  </si>
+  <si>
+    <t>iShares MSCI Korea UCITS ETF (Dist)</t>
+  </si>
+  <si>
+    <t>IKORZ</t>
+  </si>
+  <si>
+    <t>MSCI Korea 20/35</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/728368%20-%20MSCI%20Korea%2020_35%20Index%20%20-%20FULL%20-%202014-02-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -853,7 +850,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,12 +1018,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1237,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1261,9 +1252,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="53" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
@@ -1554,8 +1542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:J40" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:J39" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN" dataDxfId="10"/>
@@ -1776,21 +1764,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC3673-463E-47A3-BDB8-5CFB31BE4FC9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I35" sqref="I35:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.83203125" customWidth="1"/>
+    <col min="7" max="7" width="69.5" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -1800,34 +1788,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1838,25 +1826,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1866,955 +1854,947 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>174</v>
+        <v>205</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J22" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J27" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J28" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2823,16 +2803,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="8" t="s">
-        <v>175</v>
+      <c r="J38" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2841,40 +2821,23 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="8" t="s">
-        <v>175</v>
+      <c r="J39" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G25" r:id="rId1" xr:uid="{2C5E3A62-46E1-4943-898D-9898C453B348}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{E0BACDDB-4D5B-C642-8245-F190A44C7D95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoerosanna/Documents/finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF64C355-B6E9-E444-AF25-AF9491A64F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C95867-374E-4972-821E-ACFE554E08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Sheet" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>Korea</t>
   </si>
@@ -49,6 +50,9 @@
     <t>IE00B5377D42</t>
   </si>
   <si>
+    <t xml:space="preserve">Franklin FTSE Korea UCITS ETF </t>
+  </si>
+  <si>
     <t>iShares MSCI Australia UCITS ETF</t>
   </si>
   <si>
@@ -103,6 +107,9 @@
     <t>USA</t>
   </si>
   <si>
+    <t>Swiss</t>
+  </si>
+  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -256,6 +263,15 @@
     <t>EM Small Cap</t>
   </si>
   <si>
+    <t>LU2788421340</t>
+  </si>
+  <si>
+    <t>Xtrackers CSI500 Swap UCITS ETF 1C 1C</t>
+  </si>
+  <si>
+    <t>China Small Cap</t>
+  </si>
+  <si>
     <t>iShares MSCI Japan Small Cap UCITS ETF (Dist)</t>
   </si>
   <si>
@@ -283,6 +299,9 @@
     <t>Germany Small Cap</t>
   </si>
   <si>
+    <t>FTSE Korea 30/18 Capped</t>
+  </si>
+  <si>
     <t>MSCI Australia</t>
   </si>
   <si>
@@ -376,6 +395,12 @@
     <t>SDAX</t>
   </si>
   <si>
+    <t>CSI500</t>
+  </si>
+  <si>
+    <t>FLXK</t>
+  </si>
+  <si>
     <t>SAUS</t>
   </si>
   <si>
@@ -448,6 +473,9 @@
     <t>SPYX</t>
   </si>
   <si>
+    <t>XCSI</t>
+  </si>
+  <si>
     <t>ISJP</t>
   </si>
   <si>
@@ -490,6 +518,9 @@
     <t>HSBC Hang Seng TECH UCITS ETF HKD</t>
   </si>
   <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
     <t>IE00BMWXKN31</t>
   </si>
   <si>
@@ -544,148 +575,61 @@
     <t>Ticker indice</t>
   </si>
   <si>
+    <t>WIKORFC</t>
+  </si>
+  <si>
+    <t>MSCIAU</t>
+  </si>
+  <si>
+    <t>MIBR00000NUS</t>
+  </si>
+  <si>
+    <t>MICA00000PCA</t>
+  </si>
+  <si>
+    <t>MIIN00000NUS</t>
+  </si>
+  <si>
+    <t>MIPL00000PPL</t>
+  </si>
+  <si>
     <t>^FTSE</t>
   </si>
   <si>
-    <t>^STOXX50E</t>
-  </si>
-  <si>
-    <t>^SDAXI</t>
-  </si>
-  <si>
-    <t>Hang Seng TECH</t>
-  </si>
-  <si>
-    <t>Github export location</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/STOXX%20Europe%20Small%20200%20EUR%20NR%20Historical%20Data.csv</t>
-  </si>
-  <si>
-    <t>Last update</t>
-  </si>
-  <si>
-    <t>2026.06.30</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/961600%20-%20MSCI%20Poland%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/939200%20-%20MSCI%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915800%20-%20MSCI%20Taiwan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915200%20-%20MSCI%20Chile%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/912400%20-%20MSCI%20Canada%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/907600%20-%20MSCI%20Brazil%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/903600%20-%20MSCI%20Australia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/892200%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/848400%20-%20MSCI%20Mexico%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/720236%20-%20MSCI%20Saudi%20Arabia%2020_35%20Index%20%20-%20FULL%20-%202014-08-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/718708%20-%20MSCI%20China%20A%20Index%20%20-%20FULL%20-%202008-11-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/703634%20-%20MSCI%20Switzerland%2020_35%20Index%20%20-%20FULL%20-%202008-05-30%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700098%20-%20MSCI%20EM%20Eastern%20Europe%20ex%20Russia%20Index%20%20-%20FULL%20-%202000-12-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664220%20-%20MSCI%20EM%20(Emerging%20Markets)%20IMI%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655042%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/302400%20-%20MSCI%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/127273%20-%20MSCI%20EM%20Latin%20America%2010_40%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106218%20-%20MSCI%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105768%20-%20MSCI%20Malaysia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>yfinance</t>
-  </si>
-  <si>
-    <t>MSCI</t>
-  </si>
-  <si>
-    <t>stoxx</t>
-  </si>
-  <si>
-    <t>^GSPC</t>
-  </si>
-  <si>
-    <t>MSCI Malesia</t>
-  </si>
-  <si>
-    <t>MSCI Indonesia</t>
-  </si>
-  <si>
-    <t>MSCI Messico</t>
-  </si>
-  <si>
-    <t>MSCI Cile</t>
-  </si>
-  <si>
-    <t>Indice particolare presente solo dal 2020. Non ha senso considerarlo</t>
-  </si>
-  <si>
-    <t>iShares MSCI Korea UCITS ETF (Dist)</t>
-  </si>
-  <si>
-    <t>IKORZ</t>
-  </si>
-  <si>
-    <t>MSCI Korea 20/35</t>
-  </si>
-  <si>
-    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/728368%20-%20MSCI%20Korea%2020_35%20Index%20%20-%20FULL%20-%202014-02-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+    <t>MIZA00000PZA</t>
+  </si>
+  <si>
+    <t>^GSPC)</t>
+  </si>
+  <si>
+    <t>USA Mid Cap</t>
+  </si>
+  <si>
+    <t>^MID</t>
+  </si>
+  <si>
+    <t>S&amp;P 400 US Mid Cap</t>
+  </si>
+  <si>
+    <t>Russell 2000 US Small Cap</t>
+  </si>
+  <si>
+    <t>USA Small Capp</t>
+  </si>
+  <si>
+    <t>^RUT</t>
+  </si>
+  <si>
+    <t>MSCI Nordic</t>
+  </si>
+  <si>
+    <t>MSCI Emerging Markets Ex China</t>
+  </si>
+  <si>
+    <t>Nordic</t>
+  </si>
+  <si>
+    <t>Emerging Markets Ex China</t>
   </si>
 </sst>
 </file>
@@ -698,7 +642,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,16 +785,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,6 +954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1235,39 +1177,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="53" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" xfId="12"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="53">
     <cellStyle name="_Meta Data Content" xfId="48" xr:uid="{C40E1D37-404B-45A0-B820-FEB526A4F37A}"/>
     <cellStyle name="_Meta Data Copyright" xfId="52" xr:uid="{91CEAD18-29F0-4A90-9F29-93C506258202}"/>
     <cellStyle name="_Meta Data Heading" xfId="47" xr:uid="{2486B25D-F5FF-4DAB-819C-FC38D98AF132}"/>
@@ -1311,7 +1232,6 @@
     <cellStyle name="Heading 2" xfId="8" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="10" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8"/>
     <cellStyle name="Input" xfId="14" builtinId="20" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="17" builtinId="24" hidden="1"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" customBuiltin="1"/>
@@ -1323,49 +1243,7 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="19" builtinId="11" hidden="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1506,23 +1384,23 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Hitachi table 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Hitachi table 1" pivot="0" count="7" xr9:uid="{8E05038B-35BD-4FCB-85F9-65B80D177C34}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
+      <tableStyleElement type="lastColumn" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Hitachi table 2" pivot="0" count="3" xr9:uid="{1E0C8858-7919-4B59-9A0D-C7B45A2D780C}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="totalRow" dxfId="3"/>
     </tableStyle>
     <tableStyle name="Hitachi table 3" pivot="0" count="3" xr9:uid="{031F756C-D306-48F7-845A-41382F2C5031}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="totalRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1542,19 +1420,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:J39" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A8CFFDFB-7F1B-4DD4-8BAC-422A8EAD68A9}" name="Ticker ETF" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2F904A76-08A6-4CCB-9FA7-70346D387F28}" name="Nome" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{916E84E7-F851-4EB0-8405-87B6FCAF6B94}" name="Indice" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{FE923B6E-57B2-4D4B-8A25-607BAB4909C1}" name="Ticker indice" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{5EC5AC47-E78D-CD47-9598-41AA16DE8E45}" name="Github export location" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{AB721A24-4583-9649-9784-00DC19298391}" name="Last update" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E1A3B5CD-3D8D-2B41-95B5-C9729D1D76C9}" name="Source" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F5A8E383-746D-49C3-847A-F404FE3E6285}" name="Note" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="B2:H45" totalsRowShown="0">
+  <autoFilter ref="B2:H45" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN"/>
+    <tableColumn id="5" xr3:uid="{A8CFFDFB-7F1B-4DD4-8BAC-422A8EAD68A9}" name="Ticker ETF"/>
+    <tableColumn id="3" xr3:uid="{2F904A76-08A6-4CCB-9FA7-70346D387F28}" name="Nome"/>
+    <tableColumn id="4" xr3:uid="{916E84E7-F851-4EB0-8405-87B6FCAF6B94}" name="Indice"/>
+    <tableColumn id="7" xr3:uid="{FE923B6E-57B2-4D4B-8A25-607BAB4909C1}" name="Ticker indice"/>
+    <tableColumn id="6" xr3:uid="{F5A8E383-746D-49C3-847A-F404FE3E6285}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1764,1085 +1639,753 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC3673-463E-47A3-BDB8-5CFB31BE4FC9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.19921875" customWidth="1"/>
+    <col min="8" max="8" width="32.796875" customWidth="1"/>
+    <col min="9" max="13" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="E38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="D43" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="F43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" t="s">
         <v>195</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" xr:uid="{2C5E3A62-46E1-4943-898D-9898C453B348}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{E0BACDDB-4D5B-C642-8245-F190A44C7D95}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <Update>
   <Cmd case="SkabelonDesign.DocumentData:DefineData" variableName="ReferenceNo">
     <Doc.Prop.ReferenceNo>
@@ -3286,28 +2829,24 @@
 -->
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank XL (1)","templateDescription":"","enableDocumentContentUpdater":true,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED99533-CCA2-4A51-A8F8-F0F655B79964}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D611026-2029-40D4-88E1-110FA679C8BE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99125D3-7369-48BD-8089-888D3826B2A7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED99533-CCA2-4A51-A8F8-F0F655B79964}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C95867-374E-4972-821E-ACFE554E08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E934C3C-3BDF-43B9-AEE9-8D4A5A3294C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="198">
   <si>
     <t>Korea</t>
   </si>
@@ -1641,8 +1641,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2343,6 +2343,9 @@
       <c r="F42" t="s">
         <v>190</v>
       </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -2353,6 +2356,9 @@
       </c>
       <c r="F43" t="s">
         <v>191</v>
+      </c>
+      <c r="G43" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E934C3C-3BDF-43B9-AEE9-8D4A5A3294C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C2FF9-2323-4E73-8DA3-268343AAF6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Sheet" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
   <si>
     <t>Korea</t>
   </si>
@@ -50,9 +49,6 @@
     <t>IE00B5377D42</t>
   </si>
   <si>
-    <t xml:space="preserve">Franklin FTSE Korea UCITS ETF </t>
-  </si>
-  <si>
     <t>iShares MSCI Australia UCITS ETF</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Swiss</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -263,15 +256,6 @@
     <t>EM Small Cap</t>
   </si>
   <si>
-    <t>LU2788421340</t>
-  </si>
-  <si>
-    <t>Xtrackers CSI500 Swap UCITS ETF 1C 1C</t>
-  </si>
-  <si>
-    <t>China Small Cap</t>
-  </si>
-  <si>
     <t>iShares MSCI Japan Small Cap UCITS ETF (Dist)</t>
   </si>
   <si>
@@ -299,9 +283,6 @@
     <t>Germany Small Cap</t>
   </si>
   <si>
-    <t>FTSE Korea 30/18 Capped</t>
-  </si>
-  <si>
     <t>MSCI Australia</t>
   </si>
   <si>
@@ -395,12 +376,6 @@
     <t>SDAX</t>
   </si>
   <si>
-    <t>CSI500</t>
-  </si>
-  <si>
-    <t>FLXK</t>
-  </si>
-  <si>
     <t>SAUS</t>
   </si>
   <si>
@@ -473,9 +448,6 @@
     <t>SPYX</t>
   </si>
   <si>
-    <t>XCSI</t>
-  </si>
-  <si>
     <t>ISJP</t>
   </si>
   <si>
@@ -518,9 +490,6 @@
     <t>HSBC Hang Seng TECH UCITS ETF HKD</t>
   </si>
   <si>
-    <t>Hang Seng</t>
-  </si>
-  <si>
     <t>IE00BMWXKN31</t>
   </si>
   <si>
@@ -575,31 +544,148 @@
     <t>Ticker indice</t>
   </si>
   <si>
-    <t>WIKORFC</t>
-  </si>
-  <si>
-    <t>MSCIAU</t>
-  </si>
-  <si>
-    <t>MIBR00000NUS</t>
-  </si>
-  <si>
-    <t>MICA00000PCA</t>
-  </si>
-  <si>
-    <t>MIIN00000NUS</t>
-  </si>
-  <si>
-    <t>MIPL00000PPL</t>
-  </si>
-  <si>
     <t>^FTSE</t>
   </si>
   <si>
-    <t>MIZA00000PZA</t>
-  </si>
-  <si>
-    <t>^GSPC)</t>
+    <t>^STOXX50E</t>
+  </si>
+  <si>
+    <t>^SDAXI</t>
+  </si>
+  <si>
+    <t>Hang Seng TECH</t>
+  </si>
+  <si>
+    <t>Github export location</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nicogiangregorio/Stock-Indexes-Historical-Data/refs/heads/main/data/STOXX%20Europe%20Small%20200%20EUR%20NR%20Historical%20Data.csv</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>2026.06.30</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/991400%20-%20MSCI%20Pacific%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/971000%20-%20MSCI%20South%20Africa%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/961600%20-%20MSCI%20Poland%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/939200%20-%20MSCI%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/935600%20-%20MSCI%20India%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915800%20-%20MSCI%20Taiwan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/915200%20-%20MSCI%20Chile%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/912400%20-%20MSCI%20Canada%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/907600%20-%20MSCI%20Brazil%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/903600%20-%20MSCI%20Australia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/892200%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/891800%20-%20MSCI%20EM%20(Emerging%20Markets)%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/848400%20-%20MSCI%20Mexico%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/720236%20-%20MSCI%20Saudi%20Arabia%2020_35%20Index%20%20-%20FULL%20-%202014-08-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/718708%20-%20MSCI%20China%20A%20Index%20%20-%20FULL%20-%202008-11-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/703634%20-%20MSCI%20Switzerland%2020_35%20Index%20%20-%20FULL%20-%202008-05-30%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/700098%20-%20MSCI%20EM%20Eastern%20Europe%20ex%20Russia%20Index%20%20-%20FULL%20-%202000-12-29%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/664220%20-%20MSCI%20EM%20(Emerging%20Markets)%20IMI%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655061%20-%20MSCI%20EM%20(Emerging%20Markets)%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/655042%20-%20MSCI%20AC%20Far%20East%20ex%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201997-01-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/302400%20-%20MSCI%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/127273%20-%20MSCI%20EM%20Latin%20America%2010_40%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/106218%20-%20MSCI%20Japan%20Small%20Cap%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105768%20-%20MSCI%20Malaysia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/105767%20-%20MSCI%20Indonesia%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>yfinance</t>
+  </si>
+  <si>
+    <t>MSCI</t>
+  </si>
+  <si>
+    <t>stoxx</t>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>MSCI Malesia</t>
+  </si>
+  <si>
+    <t>MSCI Indonesia</t>
+  </si>
+  <si>
+    <t>MSCI Messico</t>
+  </si>
+  <si>
+    <t>MSCI Cile</t>
+  </si>
+  <si>
+    <t>Indice particolare presente solo dal 2020. Non ha senso considerarlo</t>
+  </si>
+  <si>
+    <t>iShares MSCI Korea UCITS ETF (Dist)</t>
+  </si>
+  <si>
+    <t>IKORZ</t>
+  </si>
+  <si>
+    <t>MSCI Korea 20/35</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/728368%20-%20MSCI%20Korea%2020_35%20Index%20%20-%20FULL%20-%202014-02-28%20-%202025-07-04%20%20-%20Monthly.xlsx</t>
   </si>
   <si>
     <t>USA Mid Cap</t>
@@ -611,25 +697,34 @@
     <t>S&amp;P 400 US Mid Cap</t>
   </si>
   <si>
+    <t>USA Small Capp</t>
+  </si>
+  <si>
+    <t>^RUT</t>
+  </si>
+  <si>
     <t>Russell 2000 US Small Cap</t>
   </si>
   <si>
-    <t>USA Small Capp</t>
-  </si>
-  <si>
-    <t>^RUT</t>
+    <t>Nordic</t>
   </si>
   <si>
     <t>MSCI Nordic</t>
   </si>
   <si>
+    <t>Emerging Markets Ex China</t>
+  </si>
+  <si>
     <t>MSCI Emerging Markets Ex China</t>
   </si>
   <si>
-    <t>Nordic</t>
-  </si>
-  <si>
-    <t>Emerging Markets Ex China</t>
+    <t>2026.07.10</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990700%20-%20MSCI%20Nordic%20Countries%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-09%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/713021%20-%20MSCI%20EM%20(Emerging%20Markets)%20ex%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-09%20%20-%20Monthly.xlsx</t>
   </si>
 </sst>
 </file>
@@ -642,7 +737,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,8 +880,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,12 +1060,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -1111,7 +1208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1177,18 +1274,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="54">
     <cellStyle name="_Meta Data Content" xfId="48" xr:uid="{C40E1D37-404B-45A0-B820-FEB526A4F37A}"/>
     <cellStyle name="_Meta Data Copyright" xfId="52" xr:uid="{91CEAD18-29F0-4A90-9F29-93C506258202}"/>
     <cellStyle name="_Meta Data Heading" xfId="47" xr:uid="{2486B25D-F5FF-4DAB-819C-FC38D98AF132}"/>
@@ -1232,6 +1350,7 @@
     <cellStyle name="Heading 2" xfId="8" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="9" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="10" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8"/>
     <cellStyle name="Input" xfId="14" builtinId="20" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="17" builtinId="24" hidden="1"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" customBuiltin="1"/>
@@ -1243,7 +1362,49 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="19" builtinId="11" hidden="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1384,23 +1545,23 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Hitachi table 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Hitachi table 1" pivot="0" count="7" xr9:uid="{8E05038B-35BD-4FCB-85F9-65B80D177C34}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Hitachi table 2" pivot="0" count="3" xr9:uid="{1E0C8858-7919-4B59-9A0D-C7B45A2D780C}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="totalRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Hitachi table 3" pivot="0" count="3" xr9:uid="{031F756C-D306-48F7-845A-41382F2C5031}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1420,16 +1581,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="B2:H45" totalsRowShown="0">
-  <autoFilter ref="B2:H45" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area"/>
-    <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN"/>
-    <tableColumn id="5" xr3:uid="{A8CFFDFB-7F1B-4DD4-8BAC-422A8EAD68A9}" name="Ticker ETF"/>
-    <tableColumn id="3" xr3:uid="{2F904A76-08A6-4CCB-9FA7-70346D387F28}" name="Nome"/>
-    <tableColumn id="4" xr3:uid="{916E84E7-F851-4EB0-8405-87B6FCAF6B94}" name="Indice"/>
-    <tableColumn id="7" xr3:uid="{FE923B6E-57B2-4D4B-8A25-607BAB4909C1}" name="Ticker indice"/>
-    <tableColumn id="6" xr3:uid="{F5A8E383-746D-49C3-847A-F404FE3E6285}" name="Note"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J43" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A8CFFDFB-7F1B-4DD4-8BAC-422A8EAD68A9}" name="Ticker ETF" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2F904A76-08A6-4CCB-9FA7-70346D387F28}" name="Nome" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{916E84E7-F851-4EB0-8405-87B6FCAF6B94}" name="Indice" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FE923B6E-57B2-4D4B-8A25-607BAB4909C1}" name="Ticker indice" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5EC5AC47-E78D-CD47-9598-41AA16DE8E45}" name="Github export location" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{AB721A24-4583-9649-9784-00DC19298391}" name="Last update" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E1A3B5CD-3D8D-2B41-95B5-C9729D1D76C9}" name="Source" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F5A8E383-746D-49C3-847A-F404FE3E6285}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,750 +1803,1166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC3673-463E-47A3-BDB8-5CFB31BE4FC9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:H45"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G43"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="105" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.19921875" customWidth="1"/>
-    <col min="8" max="8" width="32.796875" customWidth="1"/>
-    <col min="9" max="13" width="8.69921875" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="H36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" t="s">
-        <v>195</v>
-      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{2C5E3A62-46E1-4943-898D-9898C453B348}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{E0BACDDB-4D5B-C642-8245-F190A44C7D95}"/>
+    <hyperlink ref="G42" r:id="rId3" xr:uid="{685AC9EA-9E4C-4043-9A77-3F99C4A003C2}"/>
+    <hyperlink ref="G43" r:id="rId4" xr:uid="{C0D886F1-BBD6-48D1-8BFF-C2BA38440A0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2392,6 +2972,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank XL (1)","templateDescription":"","enableDocumentContentUpdater":true,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <Update>
   <Cmd case="SkabelonDesign.DocumentData:DefineData" variableName="ReferenceNo">
     <Doc.Prop.ReferenceNo>
@@ -2835,10 +3419,6 @@
 -->
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank XL (1)","templateDescription":"","enableDocumentContentUpdater":true,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED99533-CCA2-4A51-A8F8-F0F655B79964}">
   <ds:schemaRefs/>
@@ -2846,13 +3426,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D611026-2029-40D4-88E1-110FA679C8BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99125D3-7369-48BD-8089-888D3826B2A7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B99125D3-7369-48BD-8089-888D3826B2A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D611026-2029-40D4-88E1-110FA679C8BE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/etfs.xlsx
+++ b/etfs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NG4537\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C2FF9-2323-4E73-8DA3-268343AAF6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D33EC9E-A506-4443-B7E9-7D0247B37936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Sheet" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="233">
   <si>
     <t>Korea</t>
   </si>
@@ -725,6 +725,15 @@
   </si>
   <si>
     <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/713021%20-%20MSCI%20EM%20(Emerging%20Markets)%20ex%20China%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-09%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>MSCI World</t>
+  </si>
+  <si>
+    <t>https://github.com/nicogiangregorio/Stock-Indexes-Historical-Data/raw/refs/heads/main/data/990100%20-%20MSCI%20World%20Index%20%20-%20FULL%20-%201998-12-31%20-%202025-07-10%20%20-%20Monthly.xlsx</t>
+  </si>
+  <si>
+    <t>2026.07.11</t>
   </si>
 </sst>
 </file>
@@ -1581,8 +1590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J43" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J44" xr:uid="{072DDD3A-FBA5-4190-851C-A9B32A464F68}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A603BBE-29E3-49DB-9A86-C203A85A6A17}" name="Area" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E142C7C0-4A2A-414D-A511-C3051E12535D}" name="ISIN" dataDxfId="8"/>
@@ -1803,29 +1812,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCC3673-463E-47A3-BDB8-5CFB31BE4FC9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="37.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1894,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1922,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1941,7 +1950,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1978,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +2006,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2034,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2053,7 +2062,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2090,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2109,7 +2118,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2137,7 +2146,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2174,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -2193,7 +2202,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2230,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2279,7 +2288,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2316,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2335,7 +2344,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2363,7 +2372,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +2400,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -2419,7 +2428,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -2447,7 +2456,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -2475,7 +2484,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2503,7 +2512,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -2531,7 +2540,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -2587,7 +2596,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2611,7 +2620,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -2639,7 +2648,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
@@ -2713,7 +2722,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
@@ -2741,7 +2750,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -2757,7 +2766,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>146</v>
       </c>
@@ -2785,7 +2794,7 @@
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -2813,7 +2822,7 @@
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -2831,7 +2840,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>217</v>
       </c>
@@ -2885,9 +2894,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>220</v>
       </c>
@@ -2905,9 +2914,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>223</v>
       </c>
@@ -2927,9 +2936,9 @@
       <c r="I42" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>225</v>
       </c>
@@ -2949,7 +2958,29 @@
       <c r="I43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2958,24 +2989,17 @@
     <hyperlink ref="G2" r:id="rId2" xr:uid="{E0BACDDB-4D5B-C642-8245-F190A44C7D95}"/>
     <hyperlink ref="G42" r:id="rId3" xr:uid="{685AC9EA-9E4C-4043-9A77-3F99C4A003C2}"/>
     <hyperlink ref="G43" r:id="rId4" xr:uid="{C0D886F1-BBD6-48D1-8BFF-C2BA38440A0A}"/>
+    <hyperlink ref="G44" r:id="rId5" xr:uid="{3C60D9C4-1958-43FA-BFB0-EBC962BA2038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank XL (1)","templateDescription":"","enableDocumentContentUpdater":true,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <Update>
   <Cmd case="SkabelonDesign.DocumentData:DefineData" variableName="ReferenceNo">
     <Doc.Prop.ReferenceNo>
@@ -3419,8 +3443,16 @@
 -->
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Blank XL (1)","templateDescription":"","enableDocumentContentUpdater":true,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED99533-CCA2-4A51-A8F8-F0F655B79964}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D611026-2029-40D4-88E1-110FA679C8BE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3432,7 +3464,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D611026-2029-40D4-88E1-110FA679C8BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED99533-CCA2-4A51-A8F8-F0F655B79964}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
